--- a/Bot_feed.xlsx
+++ b/Bot_feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santhmc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3C3AF650-4691-4C14-A91F-EB5CEAF31AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E7871-3A99-490B-AEAF-93FE00FEFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B6B77CDC-53B6-4F5D-B551-4998FDACDFFF}"/>
   </bookViews>
@@ -444,46 +444,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40E0EA-F0A0-4B6D-A22D-EB41DE2EEE5E}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="J1" sqref="B1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="377" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
